--- a/trunk/bin/Debug/invoice-sale.xlsx
+++ b/trunk/bin/Debug/invoice-sale.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16275" windowHeight="7995"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>លរ</t>
   </si>
@@ -227,12 +227,18 @@
   <si>
     <t>Cash</t>
   </si>
+  <si>
+    <t>SUB-TOTAL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -796,37 +802,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -847,14 +826,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -871,15 +886,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -907,43 +913,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -952,6 +964,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1266,6 +1283,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1300,6 +1318,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1475,101 +1494,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
-    <col min="2" max="8" width="7.5703125" style="1" customWidth="1"/>
+    <col min="2" max="7" width="7.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="1" customWidth="1"/>
     <col min="9" max="12" width="10.5703125" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="33.75" customHeight="1">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-    </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+    </row>
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-    </row>
-    <row r="3" spans="1:12" ht="21" customHeight="1"/>
-    <row r="4" spans="1:12" ht="15">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-    </row>
-    <row r="5" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A5" s="49" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+    </row>
+    <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+    </row>
+    <row r="5" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-    </row>
-    <row r="6" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="45" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+    </row>
+    <row r="6" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-    </row>
-    <row r="7" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+    </row>
+    <row r="7" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -1583,7 +1603,7 @@
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="1:12" ht="21" customHeight="1">
+    <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -1591,9 +1611,9 @@
       <c r="K8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="39"/>
-    </row>
-    <row r="9" spans="1:12" ht="21" customHeight="1">
+      <c r="L8" s="30"/>
+    </row>
+    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -1601,9 +1621,9 @@
       <c r="K9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="38"/>
-    </row>
-    <row r="10" spans="1:12" ht="23.25">
+      <c r="L9" s="29"/>
+    </row>
+    <row r="10" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>0</v>
       </c>
@@ -1629,7 +1649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="23.25" customHeight="1">
+    <row r="11" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>24</v>
       </c>
@@ -1655,8 +1675,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="6" customHeight="1" thickBot="1"/>
-    <row r="13" spans="1:12" ht="19.5" customHeight="1" thickTop="1">
+    <row r="12" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:12" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -1668,251 +1688,251 @@
       <c r="G13" s="60"/>
       <c r="H13" s="61"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
-    </row>
-    <row r="14" spans="1:12" ht="19.5" customHeight="1">
+      <c r="J13" s="62"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="65"/>
+    </row>
+    <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="31"/>
-    </row>
-    <row r="15" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="66"/>
+    </row>
+    <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>3</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="31"/>
-    </row>
-    <row r="16" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="66"/>
+    </row>
+    <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>4</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="31"/>
-    </row>
-    <row r="17" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="66"/>
+    </row>
+    <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>5</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="31"/>
-    </row>
-    <row r="18" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="66"/>
+    </row>
+    <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>6</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="31"/>
-    </row>
-    <row r="19" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="66"/>
+    </row>
+    <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>7</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="31"/>
-    </row>
-    <row r="20" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="66"/>
+    </row>
+    <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>8</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="31"/>
-    </row>
-    <row r="21" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="66"/>
+    </row>
+    <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>9</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="31"/>
-    </row>
-    <row r="22" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="66"/>
+    </row>
+    <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>10</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="31"/>
-    </row>
-    <row r="23" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="66"/>
+    </row>
+    <row r="23" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>11</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="31"/>
-    </row>
-    <row r="24" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="66"/>
+    </row>
+    <row r="24" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>12</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="31"/>
-    </row>
-    <row r="25" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="66"/>
+    </row>
+    <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>13</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="31"/>
-    </row>
-    <row r="26" spans="1:12" ht="19.5" customHeight="1">
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="66"/>
+    </row>
+    <row r="26" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>14</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="31"/>
-    </row>
-    <row r="27" spans="1:12" ht="19.5" customHeight="1" thickBot="1">
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="66"/>
+    </row>
+    <row r="27" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>15</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="35"/>
-    </row>
-    <row r="28" spans="1:12" ht="21" customHeight="1" thickTop="1">
-      <c r="A28" s="71" t="s">
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="67"/>
+    </row>
+    <row r="28" spans="1:12" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="71"/>
+      <c r="B28" s="41"/>
       <c r="G28" s="18"/>
       <c r="H28" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="J28" s="65"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="67"/>
-    </row>
-    <row r="29" spans="1:12" ht="21" customHeight="1">
+      <c r="I28" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" s="68"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="70"/>
+    </row>
+    <row r="29" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>29</v>
       </c>
@@ -1928,12 +1948,12 @@
       <c r="I29" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J29" s="72"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="74"/>
-    </row>
-    <row r="30" spans="1:12" ht="21" customHeight="1">
-      <c r="A30" s="40" t="s">
+      <c r="J29" s="38"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="40"/>
+    </row>
+    <row r="30" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
         <v>44</v>
       </c>
       <c r="B30" s="17"/>
@@ -1942,17 +1962,17 @@
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="20"/>
-      <c r="H30" s="21" t="s">
-        <v>8</v>
+      <c r="H30" s="34" t="s">
+        <v>7</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="65"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="67"/>
-    </row>
-    <row r="31" spans="1:12" ht="21" customHeight="1">
+        <v>10</v>
+      </c>
+      <c r="J30" s="68"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="70"/>
+    </row>
+    <row r="31" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>30</v>
       </c>
@@ -1963,16 +1983,16 @@
       <c r="F31" s="17"/>
       <c r="G31" s="20"/>
       <c r="H31" s="21" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="J31" s="68"/>
       <c r="K31" s="69"/>
       <c r="L31" s="70"/>
     </row>
-    <row r="32" spans="1:12" ht="21" customHeight="1" thickBot="1">
+    <row r="32" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>28</v>
       </c>
@@ -1981,19 +2001,19 @@
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
-      <c r="G32" s="41"/>
+      <c r="G32" s="20"/>
       <c r="H32" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="J32" s="42"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="44"/>
-    </row>
-    <row r="33" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" thickTop="1">
-      <c r="A33" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32" s="71"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="73"/>
+    </row>
+    <row r="33" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="31" t="s">
         <v>46</v>
       </c>
       <c r="B33" s="17"/>
@@ -2001,36 +2021,51 @@
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
-    </row>
-    <row r="34" spans="1:12" ht="15">
+      <c r="G33" s="32"/>
+      <c r="H33" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="J33" s="74"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="76"/>
+    </row>
+    <row r="34" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15"/>
-    <row r="36" spans="1:12" ht="23.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="C36" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="15"/>
-      <c r="E36" s="37" t="s">
+      <c r="E36" s="28" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="15"/>
-      <c r="G36" s="37" t="s">
+      <c r="G36" s="28" t="s">
         <v>33</v>
       </c>
       <c r="H36" s="15"/>
-      <c r="I36" s="37" t="s">
+      <c r="I36" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="K36" s="36" t="s">
+      <c r="K36" s="27" t="s">
         <v>40</v>
       </c>
       <c r="L36" s="15"/>
     </row>
-    <row r="37" spans="1:12" ht="18.75" customHeight="1">
+    <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="C37" s="7" t="s">
         <v>17</v>
@@ -2053,19 +2088,19 @@
       </c>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" ht="18.75" customHeight="1">
+    <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="6"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:12" ht="18.75" customHeight="1">
+    <row r="39" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="6"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:12" ht="18.75" customHeight="1">
+    <row r="40" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="6"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:12" ht="18.75" customHeight="1">
+    <row r="41" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="8" t="s">
         <v>31</v>
       </c>
@@ -2083,20 +2118,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="J32:L32"/>
+  <mergeCells count="29">
+    <mergeCell ref="J33:L33"/>
     <mergeCell ref="A6:L6"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A1:L1"/>
@@ -2112,6 +2135,19 @@
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="J30:L30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>

--- a/trunk/bin/Debug/invoice-sale.xlsx
+++ b/trunk/bin/Debug/invoice-sale.xlsx
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Manager</t>
-  </si>
-  <si>
-    <t>Address:</t>
   </si>
   <si>
     <t>Date:</t>
@@ -122,9 +119,6 @@
     <t>វិក័្កយប័ត្រ</t>
   </si>
   <si>
-    <t>Customer:</t>
-  </si>
-  <si>
     <t>ប្រគល់ទំនិញ១៥ថ្ងៃក្រុមហ៊ុននឹងចាត់វិធានការណ៏តាមផ្លូវច្បាប់។</t>
   </si>
   <si>
@@ -229,6 +223,12 @@
   </si>
   <si>
     <t>SUB-TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer name: </t>
   </si>
 </sst>
 </file>
@@ -841,6 +841,102 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -848,115 +944,19 @@
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1497,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1511,83 +1511,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
+      <c r="A1" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
     </row>
     <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
+      <c r="A2" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
     </row>
     <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
     </row>
     <row r="5" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
+      <c r="A5" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
     </row>
     <row r="6" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
+      <c r="A6" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
     </row>
     <row r="7" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
@@ -1605,21 +1605,21 @@
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B8" s="6"/>
       <c r="K8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L8" s="30"/>
     </row>
     <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B9" s="6"/>
       <c r="K9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="29"/>
     </row>
@@ -1627,15 +1627,15 @@
       <c r="A10" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="55"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="57"/>
       <c r="I10" s="13" t="s">
         <v>2</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>15</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>16</v>
@@ -1651,17 +1651,17 @@
     </row>
     <row r="11" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="58"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
       <c r="I11" s="10" t="s">
         <v>4</v>
       </c>
@@ -1680,261 +1680,261 @@
       <c r="A13" s="3">
         <v>1</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="63"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="62"/>
+      <c r="J13" s="38"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="65"/>
+      <c r="L13" s="41"/>
     </row>
     <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="54"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="63"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="36"/>
-      <c r="L14" s="66"/>
+      <c r="L14" s="42"/>
     </row>
     <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>3</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="63"/>
+      <c r="J15" s="39"/>
       <c r="K15" s="36"/>
-      <c r="L15" s="66"/>
+      <c r="L15" s="42"/>
     </row>
     <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>4</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="54"/>
       <c r="I16" s="25"/>
-      <c r="J16" s="63"/>
+      <c r="J16" s="39"/>
       <c r="K16" s="36"/>
-      <c r="L16" s="66"/>
+      <c r="L16" s="42"/>
     </row>
     <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>5</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="44"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="54"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="63"/>
+      <c r="J17" s="39"/>
       <c r="K17" s="36"/>
-      <c r="L17" s="66"/>
+      <c r="L17" s="42"/>
     </row>
     <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>6</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="44"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="54"/>
       <c r="I18" s="25"/>
-      <c r="J18" s="63"/>
+      <c r="J18" s="39"/>
       <c r="K18" s="36"/>
-      <c r="L18" s="66"/>
+      <c r="L18" s="42"/>
     </row>
     <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>7</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="54"/>
       <c r="I19" s="25"/>
-      <c r="J19" s="63"/>
+      <c r="J19" s="39"/>
       <c r="K19" s="36"/>
-      <c r="L19" s="66"/>
+      <c r="L19" s="42"/>
     </row>
     <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>8</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
       <c r="I20" s="25"/>
-      <c r="J20" s="63"/>
+      <c r="J20" s="39"/>
       <c r="K20" s="36"/>
-      <c r="L20" s="66"/>
+      <c r="L20" s="42"/>
     </row>
     <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>9</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="54"/>
       <c r="I21" s="25"/>
-      <c r="J21" s="63"/>
+      <c r="J21" s="39"/>
       <c r="K21" s="36"/>
-      <c r="L21" s="66"/>
+      <c r="L21" s="42"/>
     </row>
     <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>10</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="44"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="54"/>
       <c r="I22" s="25"/>
-      <c r="J22" s="63"/>
+      <c r="J22" s="39"/>
       <c r="K22" s="36"/>
-      <c r="L22" s="66"/>
+      <c r="L22" s="42"/>
     </row>
     <row r="23" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>11</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="44"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="54"/>
       <c r="I23" s="25"/>
-      <c r="J23" s="63"/>
+      <c r="J23" s="39"/>
       <c r="K23" s="36"/>
-      <c r="L23" s="66"/>
+      <c r="L23" s="42"/>
     </row>
     <row r="24" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>12</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="44"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="54"/>
       <c r="I24" s="25"/>
-      <c r="J24" s="63"/>
+      <c r="J24" s="39"/>
       <c r="K24" s="36"/>
-      <c r="L24" s="66"/>
+      <c r="L24" s="42"/>
     </row>
     <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>13</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="44"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="54"/>
       <c r="I25" s="25"/>
-      <c r="J25" s="63"/>
+      <c r="J25" s="39"/>
       <c r="K25" s="36"/>
-      <c r="L25" s="66"/>
+      <c r="L25" s="42"/>
     </row>
     <row r="26" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>14</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="44"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="54"/>
       <c r="I26" s="25"/>
-      <c r="J26" s="63"/>
+      <c r="J26" s="39"/>
       <c r="K26" s="36"/>
-      <c r="L26" s="66"/>
+      <c r="L26" s="42"/>
     </row>
     <row r="27" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>15</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="66"/>
       <c r="I27" s="26"/>
-      <c r="J27" s="64"/>
+      <c r="J27" s="40"/>
       <c r="K27" s="37"/>
-      <c r="L27" s="67"/>
+      <c r="L27" s="43"/>
     </row>
     <row r="28" spans="1:12" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="41"/>
+      <c r="A28" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="76"/>
       <c r="G28" s="18"/>
       <c r="H28" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I28" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="J28" s="68"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="70"/>
+        <v>49</v>
+      </c>
+      <c r="J28" s="67"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="69"/>
     </row>
     <row r="29" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -1943,18 +1943,18 @@
       <c r="F29" s="17"/>
       <c r="G29" s="20"/>
       <c r="H29" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I29" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J29" s="38"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="40"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="72"/>
     </row>
     <row r="30" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -1968,13 +1968,13 @@
       <c r="I30" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="68"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="70"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="69"/>
     </row>
     <row r="31" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -1988,13 +1988,13 @@
       <c r="I31" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="68"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="70"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="69"/>
     </row>
     <row r="32" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -2003,18 +2003,18 @@
       <c r="F32" s="17"/>
       <c r="G32" s="20"/>
       <c r="H32" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="I32" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="J32" s="71"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="75"/>
     </row>
     <row r="33" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -2023,18 +2023,18 @@
       <c r="F33" s="17"/>
       <c r="G33" s="32"/>
       <c r="H33" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="I33" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="J33" s="74"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="76"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="46"/>
     </row>
     <row r="34" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2054,14 +2054,14 @@
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" s="28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L36" s="15"/>
     </row>
@@ -2072,19 +2072,19 @@
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J37" s="16"/>
       <c r="K37" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L37" s="2"/>
     </row>
@@ -2102,23 +2102,36 @@
     </row>
     <row r="41" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
     <mergeCell ref="J33:L33"/>
     <mergeCell ref="A6:L6"/>
     <mergeCell ref="A2:L2"/>
@@ -2135,19 +2148,6 @@
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="J30:L30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
